--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120371.102865895</v>
+        <v>1114366.893050615</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10898178.97313182</v>
+        <v>11154611.94481547</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>186.6141597285341</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>28.90798465780146</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>51.42539056436211</v>
       </c>
       <c r="S4" t="n">
-        <v>84.69473660442847</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>131.6045095424831</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>24.14763241892861</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>104.5370376604006</v>
+        <v>24.97436107625053</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>114.4233678789967</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>224.2131267027218</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2.187563686666643</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>238.7809396517839</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.07327741456142</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.6649597713317</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>206.7582264966181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1686991936199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>132.6315337216692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>40.36264995190486</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>19.91555826189098</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.6197054599889589</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796243</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796243</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D2" t="n">
-        <v>921.7704558796243</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>921.7704558796243</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>510.7845510900167</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>95.71210093501315</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>95.71210093501315</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468608</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080135</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.82338995286</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.82338995286</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.82338995286</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.82338995286</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.82338995286</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1875.349709134592</v>
       </c>
       <c r="S4" t="n">
-        <v>3150.225125372325</v>
+        <v>1875.349709134592</v>
       </c>
       <c r="T4" t="n">
-        <v>2928.458509941851</v>
+        <v>1653.583093704118</v>
       </c>
       <c r="U4" t="n">
-        <v>2639.355643067494</v>
+        <v>1364.480226829761</v>
       </c>
       <c r="V4" t="n">
-        <v>2384.671154861608</v>
+        <v>1109.795738623875</v>
       </c>
       <c r="W4" t="n">
-        <v>2095.253984824647</v>
+        <v>1109.795738623875</v>
       </c>
       <c r="X4" t="n">
-        <v>1867.26443392663</v>
+        <v>881.8061877258572</v>
       </c>
       <c r="Y4" t="n">
-        <v>1646.4718547831</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3082.381305113554</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2751.318417769983</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.9911633238872</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1540.185239339109</v>
+        <v>1902.067920738745</v>
       </c>
       <c r="U7" t="n">
-        <v>1251.082372464752</v>
+        <v>1612.965053864388</v>
       </c>
       <c r="V7" t="n">
-        <v>996.3978842588651</v>
+        <v>1358.280565658501</v>
       </c>
       <c r="W7" t="n">
-        <v>706.9807142219046</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="X7" t="n">
-        <v>478.9911633238872</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.9911633238872</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2102.480899540948</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1733.518382600537</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2735.306770649777</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2489.08073960507</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.4774356872693</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>386.5412527593625</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>236.4246133470267</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>236.4246133470267</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>555.4774356872693</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.208022973022</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3084.412953274035</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2710.947195012955</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2320.807863037144</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.140063348092</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.00073137228</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,13 +5536,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,7 +5779,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558404</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630497</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>2484.576679364214</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2484.576679364214</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430191</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532174</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388644</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3227.225672628157</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3058.28948970025</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>2908.172850287915</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>2760.259756705521</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>2613.369809207611</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4401.757925742791</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4147.073437536905</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3857.656267499944</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3629.666716601927</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3408.874137458397</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6928,25 +6928,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6955,10 +6955,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.33711846916</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2263.482284124065</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.880819147006</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.288530476235451e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>110.4600290656291</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>45.37941682720987</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>45.44677382459248</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>32.89260457059964</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>139.4693302300324</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.75554125013272</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>976922.9588907796</v>
+        <v>976922.9588907795</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813542.0618819102</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813542.0618819103</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>960596.1339360038</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165592</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26337,25 +26337,25 @@
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="M2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="P2" t="n">
         <v>464109.2948217537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="P2" t="n">
-        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598196</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818186</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.8989181817</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818177</v>
       </c>
-      <c r="D4" t="n">
-        <v>92183.89891818173</v>
-      </c>
       <c r="E4" t="n">
-        <v>12820.12292715301</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12820.12292715301</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1056763.567535204</v>
       </c>
       <c r="C6" t="n">
-        <v>271981.178192388</v>
+        <v>271981.1781923883</v>
       </c>
       <c r="D6" t="n">
-        <v>271981.178192388</v>
+        <v>271981.1781923883</v>
       </c>
       <c r="E6" t="n">
-        <v>305020.2003280125</v>
+        <v>24230.0597893036</v>
       </c>
       <c r="F6" t="n">
-        <v>305020.2003280129</v>
+        <v>349642.5215966596</v>
       </c>
       <c r="G6" t="n">
-        <v>40146.86739119655</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="H6" t="n">
-        <v>349989.9008510163</v>
+        <v>349642.521596659</v>
       </c>
       <c r="I6" t="n">
-        <v>349989.9008510162</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="J6" t="n">
-        <v>132458.6984537387</v>
+        <v>132111.3191993817</v>
       </c>
       <c r="K6" t="n">
-        <v>349989.9008510159</v>
+        <v>349642.5215966592</v>
       </c>
       <c r="L6" t="n">
-        <v>349989.900851016</v>
+        <v>349642.521596659</v>
       </c>
       <c r="M6" t="n">
-        <v>349989.900851016</v>
+        <v>264587.4936611472</v>
       </c>
       <c r="N6" t="n">
-        <v>349989.9008510161</v>
+        <v>349642.5215966591</v>
       </c>
       <c r="O6" t="n">
-        <v>267854.0702555648</v>
+        <v>349642.5215966594</v>
       </c>
       <c r="P6" t="n">
-        <v>349989.900851016</v>
+        <v>349642.5215966591</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,34 +26962,34 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12.66894511512454</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>37.50676210568522</v>
       </c>
       <c r="S4" t="n">
-        <v>105.0742887270135</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>119.3906624164189</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>345.5834682595404</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>115.0119116157686</v>
+        <v>194.5745881999187</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>240.2596737416862</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>103.5391317674132</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>143.2334843362646</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837919</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.512347035315</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,28 +32548,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>518.4394551593582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,19 +33271,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>309.9424824173362</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004586</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.670908060956</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>376.3054212373398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,19 +36919,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>167.3462379728918</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1114366.893050615</v>
+        <v>1117521.812392837</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11154611.94481547</v>
+        <v>10898178.97313182</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>186.6141597285341</v>
+        <v>42.76773080618923</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>27.00971856836592</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.42539056436211</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>77.4263979403581</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>24.14763241892861</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>24.97436107625053</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>114.4233678789967</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>391.4025790744354</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>96.94563888361175</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>53.07327741456142</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>219.1834685212283</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>87.00571500957111</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>4.019807611472022</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.36264995190486</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>19.91555826189098</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.400891308158</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.438374367746</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4330,13 +4330,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.77673900139</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.140063348092</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.00073137228</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.1577228956174</v>
+        <v>1021.570547268603</v>
       </c>
       <c r="C4" t="n">
-        <v>531.2215399677106</v>
+        <v>852.6343643406964</v>
       </c>
       <c r="D4" t="n">
-        <v>381.1049005553748</v>
+        <v>702.5177249283606</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>554.6046313459675</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>407.7146838480571</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>240.0118472227761</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>93.79466044063386</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1875.349709134592</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1875.349709134592</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1653.583093704118</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1364.480226829761</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1109.795738623875</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1109.795738623875</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>881.8061877258572</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y4" t="n">
-        <v>881.8061877258572</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1902.067920738745</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1612.965053864388</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1358.280565658501</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1068.863395621541</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.863395621541</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2102.480899540948</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.518382600537</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>503.8651556719424</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.54649786615</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.08073960507</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2489.08073960507</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218339</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.044369546818</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>986.3598813409312</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2337.871643618483</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1947.732311642671</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913854</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3403484614391</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614391</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1477.112184968822</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>471.2459535582118</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>302.3097706303049</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>873.6869975319817</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>652.8944183884515</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6129,10 +6129,10 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,43 +6694,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,55 +6834,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311364</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032295</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
         <v>2264.108249235165</v>
@@ -6900,10 +6900,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,46 +6919,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797191</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,10 +7648,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>272.7854617948573</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>114.1735436840664</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>167.0544701348253</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>61.60975800864125</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.5956654067403</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.4693302300324</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>125.5054897610403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>960596.1339360037</v>
+        <v>813542.0618819101</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>960596.1339360037</v>
+        <v>813542.06188191</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360034</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>960596.1339360037</v>
+        <v>960596.1339360035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>960596.1339360035</v>
+        <v>960596.1339360037</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.0176719633</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719632</v>
-      </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217538</v>
+        <v>392146.6638165587</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26343,19 +26343,19 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545141</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683044</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1056763.567535204</v>
       </c>
       <c r="C6" t="n">
-        <v>271981.1781923883</v>
+        <v>271981.1781923881</v>
       </c>
       <c r="D6" t="n">
         <v>271981.1781923883</v>
       </c>
       <c r="E6" t="n">
-        <v>24230.0597893036</v>
+        <v>304672.5813982065</v>
       </c>
       <c r="F6" t="n">
-        <v>349642.5215966596</v>
+        <v>304672.5813982062</v>
       </c>
       <c r="G6" t="n">
-        <v>349642.5215966591</v>
+        <v>40112.12946576026</v>
       </c>
       <c r="H6" t="n">
-        <v>349642.521596659</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="I6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255805</v>
       </c>
       <c r="J6" t="n">
-        <v>132111.3191993817</v>
+        <v>132423.9605283029</v>
       </c>
       <c r="K6" t="n">
-        <v>349642.5215966592</v>
+        <v>349955.1629255804</v>
       </c>
       <c r="L6" t="n">
-        <v>349642.521596659</v>
+        <v>349955.1629255803</v>
       </c>
       <c r="M6" t="n">
-        <v>264587.4936611472</v>
+        <v>349955.1629255803</v>
       </c>
       <c r="N6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255803</v>
       </c>
       <c r="O6" t="n">
-        <v>349642.5215966594</v>
+        <v>267819.332330129</v>
       </c>
       <c r="P6" t="n">
-        <v>349642.5215966591</v>
+        <v>349955.1629255803</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,14 +26968,14 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>278.1987997483757</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.306832697356</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>168.0688818921489</v>
+        <v>311.9153108144938</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>69.34270184147216</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>37.50676210568522</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>277.2566436803248</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>345.5834682595404</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27827,10 +27827,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>194.5745881999187</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>240.2596737416862</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19.51914657901801</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
